--- a/Time_Table_output.xlsx
+++ b/Time_Table_output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -674,7 +674,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1535,12 +1535,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1676,12 +1676,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1958,12 +1958,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2099,12 +2099,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2146,12 +2146,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2381,12 +2381,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2992,12 +2992,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3039,12 +3039,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3133,12 +3133,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3462,12 +3462,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3979,12 +3979,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4308,12 +4308,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4872,12 +4872,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5013,12 +5013,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5295,12 +5295,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5389,12 +5389,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5436,12 +5436,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5718,12 +5718,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5812,12 +5812,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5859,12 +5859,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6141,12 +6141,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6235,12 +6235,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6282,12 +6282,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6690,7 +6690,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -6752,12 +6752,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -6987,12 +6987,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7175,12 +7175,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7222,12 +7222,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7269,12 +7269,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7316,12 +7316,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7363,12 +7363,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7410,12 +7410,12 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7457,12 +7457,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7494,7 +7494,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7504,12 +7504,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7551,12 +7551,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7598,12 +7598,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -7739,12 +7739,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7818,7 +7818,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7927,12 +7927,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -7974,12 +7974,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8205,12 +8205,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8351,12 +8351,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -8582,12 +8582,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -8666,7 +8666,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -8723,12 +8723,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -8911,12 +8911,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9005,12 +9005,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -9042,7 +9042,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9052,12 +9052,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9240,12 +9240,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -9272,7 +9272,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9569,12 +9569,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -9616,12 +9616,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -9742,7 +9742,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -9879,7 +9879,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -9926,7 +9926,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10035,12 +10035,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -10354,7 +10354,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10364,12 +10364,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10411,12 +10411,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -10693,12 +10693,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -10740,12 +10740,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -10772,7 +10772,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -10819,7 +10819,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -10918,7 +10918,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -10928,12 +10928,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -10975,12 +10975,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -11007,7 +11007,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -11054,7 +11054,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -11163,12 +11163,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -11294,7 +11294,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -11304,12 +11304,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -11351,12 +11351,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -11430,7 +11430,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -11477,7 +11477,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11539,12 +11539,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -11680,12 +11680,12 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -11821,12 +11821,12 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -11853,7 +11853,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -11947,7 +11947,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -12046,7 +12046,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -12056,12 +12056,12 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -12187,7 +12187,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -12197,12 +12197,12 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -12422,7 +12422,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -12432,12 +12432,12 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -12714,12 +12714,12 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -12761,12 +12761,12 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -12845,7 +12845,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -12855,12 +12855,12 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -13033,7 +13033,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -13043,12 +13043,12 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -13080,7 +13080,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -13090,12 +13090,12 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -13137,12 +13137,12 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -13174,7 +13174,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -13184,12 +13184,12 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -13221,7 +13221,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -13231,12 +13231,12 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -13278,12 +13278,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -13315,7 +13315,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -13325,12 +13325,12 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -13498,7 +13498,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -13546,7 +13546,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -13556,12 +13556,12 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -13702,12 +13702,12 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -13781,7 +13781,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -13828,7 +13828,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -13923,7 +13923,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -13933,12 +13933,12 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -14027,12 +14027,12 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -14064,7 +14064,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -14074,12 +14074,12 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -14252,7 +14252,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -14262,12 +14262,12 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -14356,12 +14356,12 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -14393,7 +14393,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -14403,12 +14403,12 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -14581,7 +14581,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -14591,12 +14591,12 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -14623,7 +14623,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -14670,7 +14670,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -14910,7 +14910,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -14920,12 +14920,12 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -14957,7 +14957,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -14967,12 +14967,12 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -15046,7 +15046,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -15093,7 +15093,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -15140,7 +15140,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -15230,7 +15230,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -15277,7 +15277,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -15386,12 +15386,12 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -15559,7 +15559,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -15606,7 +15606,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -15653,7 +15653,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -15705,7 +15705,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -15715,12 +15715,12 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -15762,12 +15762,12 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -16034,7 +16034,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -16044,12 +16044,12 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -16081,7 +16081,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -16091,12 +16091,12 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -16123,7 +16123,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -16170,7 +16170,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -16217,7 +16217,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -16269,7 +16269,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -16279,12 +16279,12 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -16316,7 +16316,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -16326,12 +16326,12 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -16358,7 +16358,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -16405,7 +16405,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -16452,7 +16452,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -16514,12 +16514,12 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -16645,7 +16645,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -16655,12 +16655,12 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -16702,12 +16702,12 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -16734,7 +16734,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -16781,7 +16781,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -16828,7 +16828,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -16880,7 +16880,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -16890,12 +16890,12 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -17021,7 +17021,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -17031,12 +17031,12 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -17162,7 +17162,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -17172,12 +17172,12 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -17204,7 +17204,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -17251,7 +17251,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -17298,7 +17298,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -17397,7 +17397,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -17407,12 +17407,12 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -17538,7 +17538,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -17548,12 +17548,12 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -17580,7 +17580,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -17627,7 +17627,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -17773,7 +17773,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -17783,12 +17783,12 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -18055,7 +18055,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -18065,12 +18065,12 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -18102,7 +18102,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -18112,12 +18112,12 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -18196,7 +18196,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -18206,12 +18206,12 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -18384,7 +18384,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -18394,12 +18394,12 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -18431,7 +18431,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -18441,12 +18441,12 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -18478,7 +18478,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -18488,12 +18488,12 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -18525,7 +18525,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -18535,12 +18535,12 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -18582,12 +18582,12 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -18619,7 +18619,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -18629,12 +18629,12 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -18676,12 +18676,12 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -18755,7 +18755,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -18802,7 +18802,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -18849,7 +18849,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -18897,7 +18897,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -18907,12 +18907,12 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -18991,7 +18991,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -19001,12 +19001,12 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -19038,7 +19038,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -19048,12 +19048,12 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -19226,7 +19226,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -19236,12 +19236,12 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -19330,12 +19330,12 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -19367,7 +19367,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -19377,12 +19377,12 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -19555,7 +19555,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -19565,12 +19565,12 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -19597,7 +19597,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -19644,7 +19644,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -19691,7 +19691,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -19884,7 +19884,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -19894,12 +19894,12 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -19931,7 +19931,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -19941,12 +19941,12 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -20020,7 +20020,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -20067,7 +20067,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -20114,7 +20114,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -20157,7 +20157,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -20251,7 +20251,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -20350,7 +20350,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -20360,12 +20360,12 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -20533,7 +20533,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -20627,7 +20627,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -20679,7 +20679,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -20689,12 +20689,12 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -20726,7 +20726,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -20736,12 +20736,12 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -21018,12 +21018,12 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -21055,7 +21055,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -21065,12 +21065,12 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -21097,7 +21097,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -21191,7 +21191,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -21243,7 +21243,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -21253,12 +21253,12 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -21290,7 +21290,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -21300,12 +21300,12 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -21332,7 +21332,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -21379,7 +21379,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -21426,7 +21426,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -21478,7 +21478,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -21488,12 +21488,12 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -21619,7 +21619,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -21629,12 +21629,12 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -21676,12 +21676,12 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -21708,7 +21708,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -21755,7 +21755,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -21854,7 +21854,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -21864,12 +21864,12 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -21995,7 +21995,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -22005,12 +22005,12 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -22136,7 +22136,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -22146,12 +22146,12 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -22178,7 +22178,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -22225,7 +22225,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -22272,7 +22272,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -22371,7 +22371,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -22381,12 +22381,12 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -22512,7 +22512,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -22522,12 +22522,12 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -22554,7 +22554,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -22601,7 +22601,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -22747,7 +22747,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -22757,12 +22757,12 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -23029,7 +23029,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -23039,12 +23039,12 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -23076,7 +23076,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -23086,12 +23086,12 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -23170,7 +23170,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -23180,12 +23180,12 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -23358,7 +23358,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -23368,12 +23368,12 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -23405,7 +23405,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -23415,12 +23415,12 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -23452,7 +23452,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -23462,12 +23462,12 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -23499,7 +23499,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
@@ -23509,12 +23509,12 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -23546,7 +23546,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
@@ -23556,12 +23556,12 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -23593,7 +23593,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -23603,12 +23603,12 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -23640,7 +23640,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
@@ -23650,12 +23650,12 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -23828,7 +23828,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
@@ -23838,12 +23838,12 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -23922,7 +23922,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -23932,12 +23932,12 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -23969,7 +23969,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -23979,12 +23979,12 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
@@ -24167,12 +24167,12 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -24246,7 +24246,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -24293,7 +24293,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -24486,7 +24486,7 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
@@ -24496,12 +24496,12 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -24533,7 +24533,7 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
@@ -24543,12 +24543,12 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -24622,7 +24622,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -24669,7 +24669,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -24716,7 +24716,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -24759,7 +24759,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -24806,7 +24806,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -24853,7 +24853,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -24952,7 +24952,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
@@ -24962,12 +24962,12 @@
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -25182,7 +25182,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -25229,7 +25229,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -25281,7 +25281,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
@@ -25291,12 +25291,12 @@
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -25328,7 +25328,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
@@ -25338,12 +25338,12 @@
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
@@ -25620,12 +25620,12 @@
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -25657,7 +25657,7 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
@@ -25667,12 +25667,12 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -25699,7 +25699,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -25793,7 +25793,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
@@ -25845,7 +25845,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -25855,12 +25855,12 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -25892,7 +25892,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
@@ -25902,12 +25902,12 @@
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -25934,7 +25934,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -25981,7 +25981,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -26028,7 +26028,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -26080,7 +26080,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
@@ -26090,12 +26090,12 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -26221,7 +26221,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
@@ -26231,12 +26231,12 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -26268,7 +26268,7 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
@@ -26278,12 +26278,12 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -26310,7 +26310,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -26357,7 +26357,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
@@ -26404,7 +26404,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -26456,7 +26456,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -26466,12 +26466,12 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -26597,7 +26597,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -26607,12 +26607,12 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
@@ -26738,7 +26738,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -26748,12 +26748,12 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -26780,7 +26780,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -26827,7 +26827,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
@@ -26874,7 +26874,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -26973,7 +26973,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -26983,12 +26983,12 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -27114,7 +27114,7 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -27124,12 +27124,12 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -27156,7 +27156,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -27203,7 +27203,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -27349,7 +27349,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
@@ -27359,12 +27359,12 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
@@ -27631,7 +27631,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
@@ -27641,12 +27641,12 @@
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -27678,7 +27678,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
@@ -27688,12 +27688,12 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -27772,7 +27772,7 @@
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
@@ -27782,12 +27782,12 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
@@ -27960,7 +27960,7 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
@@ -27970,12 +27970,12 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
@@ -28007,7 +28007,7 @@
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
@@ -28017,12 +28017,12 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
@@ -28054,7 +28054,7 @@
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
@@ -28064,12 +28064,12 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -28101,7 +28101,7 @@
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
@@ -28111,12 +28111,12 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
@@ -28148,7 +28148,7 @@
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
@@ -28158,12 +28158,12 @@
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
@@ -28195,7 +28195,7 @@
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
@@ -28205,12 +28205,12 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -28242,7 +28242,7 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
@@ -28252,12 +28252,12 @@
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
